--- a/US/data/CBS/NFIB/old/Current Job Openings.xlsx
+++ b/US/data/CBS/NFIB/old/Current Job Openings.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD34ACC6-79E7-4A87-82B1-1B22A292B439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995"/>
+    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="472">
   <si>
     <t>Month/Year</t>
   </si>
@@ -36,39 +37,39 @@
     <t>1986/2/1</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1986/3/1</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1986/4/1</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1986/5/1</t>
+  </si>
+  <si>
+    <t>1986/6/1</t>
+  </si>
+  <si>
+    <t>1986/7/1</t>
+  </si>
+  <si>
+    <t>1986/8/1</t>
+  </si>
+  <si>
+    <t>1986/9/1</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>1986/3/1</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1986/4/1</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1986/5/1</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1986/6/1</t>
-  </si>
-  <si>
-    <t>1986/7/1</t>
-  </si>
-  <si>
-    <t>1986/8/1</t>
-  </si>
-  <si>
-    <t>1986/9/1</t>
-  </si>
-  <si>
     <t>1986/10/1</t>
   </si>
   <si>
@@ -87,6 +88,9 @@
     <t>1987/2/1</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>1987/3/1</t>
   </si>
   <si>
@@ -147,9 +151,6 @@
     <t>1988/6/1</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>1988/7/1</t>
   </si>
   <si>
@@ -249,18 +250,18 @@
     <t>1991/2/1</t>
   </si>
   <si>
+    <t>1991/3/1</t>
+  </si>
+  <si>
+    <t>1991/4/1</t>
+  </si>
+  <si>
+    <t>1991/5/1</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>1991/3/1</t>
-  </si>
-  <si>
-    <t>1991/4/1</t>
-  </si>
-  <si>
-    <t>1991/5/1</t>
-  </si>
-  <si>
     <t>1991/6/1</t>
   </si>
   <si>
@@ -564,660 +565,660 @@
     <t>1999/2/1</t>
   </si>
   <si>
+    <t>1999/3/1</t>
+  </si>
+  <si>
+    <t>1999/4/1</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>1999/5/1</t>
+  </si>
+  <si>
+    <t>1999/6/1</t>
+  </si>
+  <si>
+    <t>1999/7/1</t>
+  </si>
+  <si>
+    <t>1999/8/1</t>
+  </si>
+  <si>
+    <t>1999/9/1</t>
+  </si>
+  <si>
+    <t>1999/10/1</t>
+  </si>
+  <si>
+    <t>1999/11/1</t>
+  </si>
+  <si>
+    <t>1999/12/1</t>
+  </si>
+  <si>
+    <t>2000/1/1</t>
+  </si>
+  <si>
+    <t>2000/2/1</t>
+  </si>
+  <si>
+    <t>2000/3/1</t>
+  </si>
+  <si>
+    <t>2000/4/1</t>
+  </si>
+  <si>
+    <t>2000/5/1</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2000/6/1</t>
+  </si>
+  <si>
+    <t>2000/7/1</t>
+  </si>
+  <si>
+    <t>2000/8/1</t>
+  </si>
+  <si>
+    <t>2000/9/1</t>
+  </si>
+  <si>
+    <t>2000/10/1</t>
+  </si>
+  <si>
+    <t>2000/11/1</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2000/12/1</t>
+  </si>
+  <si>
+    <t>2001/1/1</t>
+  </si>
+  <si>
+    <t>2001/2/1</t>
+  </si>
+  <si>
+    <t>2001/3/1</t>
+  </si>
+  <si>
+    <t>2001/4/1</t>
+  </si>
+  <si>
+    <t>2001/5/1</t>
+  </si>
+  <si>
+    <t>2001/6/1</t>
+  </si>
+  <si>
+    <t>2001/7/1</t>
+  </si>
+  <si>
+    <t>2001/8/1</t>
+  </si>
+  <si>
+    <t>2001/9/1</t>
+  </si>
+  <si>
+    <t>2001/10/1</t>
+  </si>
+  <si>
+    <t>2001/11/1</t>
+  </si>
+  <si>
+    <t>2001/12/1</t>
+  </si>
+  <si>
+    <t>2002/1/1</t>
+  </si>
+  <si>
+    <t>2002/2/1</t>
+  </si>
+  <si>
+    <t>2002/3/1</t>
+  </si>
+  <si>
+    <t>2002/4/1</t>
+  </si>
+  <si>
+    <t>2002/5/1</t>
+  </si>
+  <si>
+    <t>2002/6/1</t>
+  </si>
+  <si>
+    <t>2002/7/1</t>
+  </si>
+  <si>
+    <t>2002/8/1</t>
+  </si>
+  <si>
+    <t>2002/9/1</t>
+  </si>
+  <si>
+    <t>2002/10/1</t>
+  </si>
+  <si>
+    <t>2002/11/1</t>
+  </si>
+  <si>
+    <t>2002/12/1</t>
+  </si>
+  <si>
+    <t>2003/1/1</t>
+  </si>
+  <si>
+    <t>2003/2/1</t>
+  </si>
+  <si>
+    <t>2003/3/1</t>
+  </si>
+  <si>
+    <t>2003/4/1</t>
+  </si>
+  <si>
+    <t>2003/5/1</t>
+  </si>
+  <si>
+    <t>2003/6/1</t>
+  </si>
+  <si>
+    <t>2003/7/1</t>
+  </si>
+  <si>
+    <t>2003/8/1</t>
+  </si>
+  <si>
+    <t>2003/9/1</t>
+  </si>
+  <si>
+    <t>2003/10/1</t>
+  </si>
+  <si>
+    <t>2003/11/1</t>
+  </si>
+  <si>
+    <t>2003/12/1</t>
+  </si>
+  <si>
+    <t>2004/1/1</t>
+  </si>
+  <si>
+    <t>2004/2/1</t>
+  </si>
+  <si>
+    <t>2004/3/1</t>
+  </si>
+  <si>
+    <t>2004/4/1</t>
+  </si>
+  <si>
+    <t>2004/5/1</t>
+  </si>
+  <si>
+    <t>2004/6/1</t>
+  </si>
+  <si>
+    <t>2004/7/1</t>
+  </si>
+  <si>
+    <t>2004/8/1</t>
+  </si>
+  <si>
+    <t>2004/9/1</t>
+  </si>
+  <si>
+    <t>2004/10/1</t>
+  </si>
+  <si>
+    <t>2004/11/1</t>
+  </si>
+  <si>
+    <t>2004/12/1</t>
+  </si>
+  <si>
+    <t>2005/1/1</t>
+  </si>
+  <si>
+    <t>2005/2/1</t>
+  </si>
+  <si>
+    <t>2005/3/1</t>
+  </si>
+  <si>
+    <t>2005/4/1</t>
+  </si>
+  <si>
+    <t>2005/5/1</t>
+  </si>
+  <si>
+    <t>2005/6/1</t>
+  </si>
+  <si>
+    <t>2005/7/1</t>
+  </si>
+  <si>
+    <t>2005/8/1</t>
+  </si>
+  <si>
+    <t>2005/9/1</t>
+  </si>
+  <si>
+    <t>2005/10/1</t>
+  </si>
+  <si>
+    <t>2005/11/1</t>
+  </si>
+  <si>
+    <t>2005/12/1</t>
+  </si>
+  <si>
+    <t>2006/1/1</t>
+  </si>
+  <si>
+    <t>2006/2/1</t>
+  </si>
+  <si>
+    <t>2006/3/1</t>
+  </si>
+  <si>
+    <t>2006/4/1</t>
+  </si>
+  <si>
+    <t>2006/5/1</t>
+  </si>
+  <si>
+    <t>2006/6/1</t>
+  </si>
+  <si>
+    <t>2006/7/1</t>
+  </si>
+  <si>
+    <t>2006/8/1</t>
+  </si>
+  <si>
+    <t>2006/9/1</t>
+  </si>
+  <si>
+    <t>2006/10/1</t>
+  </si>
+  <si>
+    <t>2006/11/1</t>
+  </si>
+  <si>
+    <t>2006/12/1</t>
+  </si>
+  <si>
+    <t>2007/1/1</t>
+  </si>
+  <si>
+    <t>2007/2/1</t>
+  </si>
+  <si>
+    <t>2007/3/1</t>
+  </si>
+  <si>
+    <t>2007/4/1</t>
+  </si>
+  <si>
+    <t>2007/5/1</t>
+  </si>
+  <si>
+    <t>2007/6/1</t>
+  </si>
+  <si>
+    <t>2007/7/1</t>
+  </si>
+  <si>
+    <t>2007/8/1</t>
+  </si>
+  <si>
+    <t>2007/9/1</t>
+  </si>
+  <si>
+    <t>2007/10/1</t>
+  </si>
+  <si>
+    <t>2007/11/1</t>
+  </si>
+  <si>
+    <t>2007/12/1</t>
+  </si>
+  <si>
+    <t>2008/1/1</t>
+  </si>
+  <si>
+    <t>2008/2/1</t>
+  </si>
+  <si>
+    <t>2008/3/1</t>
+  </si>
+  <si>
+    <t>2008/4/1</t>
+  </si>
+  <si>
+    <t>2008/5/1</t>
+  </si>
+  <si>
+    <t>2008/6/1</t>
+  </si>
+  <si>
+    <t>2008/7/1</t>
+  </si>
+  <si>
+    <t>2008/8/1</t>
+  </si>
+  <si>
+    <t>2008/9/1</t>
+  </si>
+  <si>
+    <t>2008/10/1</t>
+  </si>
+  <si>
+    <t>2008/11/1</t>
+  </si>
+  <si>
+    <t>2008/12/1</t>
+  </si>
+  <si>
+    <t>2009/1/1</t>
+  </si>
+  <si>
+    <t>2009/2/1</t>
+  </si>
+  <si>
+    <t>2009/3/1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2009/4/1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2009/5/1</t>
+  </si>
+  <si>
+    <t>2009/6/1</t>
+  </si>
+  <si>
+    <t>2009/7/1</t>
+  </si>
+  <si>
+    <t>2009/8/1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2009/9/1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2009/10/1</t>
+  </si>
+  <si>
+    <t>2009/11/1</t>
+  </si>
+  <si>
+    <t>2009/12/1</t>
+  </si>
+  <si>
+    <t>2010/1/1</t>
+  </si>
+  <si>
+    <t>2010/2/1</t>
+  </si>
+  <si>
+    <t>2010/3/1</t>
+  </si>
+  <si>
+    <t>2010/4/1</t>
+  </si>
+  <si>
+    <t>2010/5/1</t>
+  </si>
+  <si>
+    <t>2010/6/1</t>
+  </si>
+  <si>
+    <t>2010/7/1</t>
+  </si>
+  <si>
+    <t>2010/8/1</t>
+  </si>
+  <si>
+    <t>2010/9/1</t>
+  </si>
+  <si>
+    <t>2010/10/1</t>
+  </si>
+  <si>
+    <t>2010/11/1</t>
+  </si>
+  <si>
+    <t>2010/12/1</t>
+  </si>
+  <si>
+    <t>2011/1/1</t>
+  </si>
+  <si>
+    <t>2011/2/1</t>
+  </si>
+  <si>
+    <t>2011/3/1</t>
+  </si>
+  <si>
+    <t>2011/4/1</t>
+  </si>
+  <si>
+    <t>2011/5/1</t>
+  </si>
+  <si>
+    <t>2011/6/1</t>
+  </si>
+  <si>
+    <t>2011/7/1</t>
+  </si>
+  <si>
+    <t>2011/8/1</t>
+  </si>
+  <si>
+    <t>2011/9/1</t>
+  </si>
+  <si>
+    <t>2011/10/1</t>
+  </si>
+  <si>
+    <t>2011/11/1</t>
+  </si>
+  <si>
+    <t>2011/12/1</t>
+  </si>
+  <si>
+    <t>2012/1/1</t>
+  </si>
+  <si>
+    <t>2012/2/1</t>
+  </si>
+  <si>
+    <t>2012/3/1</t>
+  </si>
+  <si>
+    <t>2012/4/1</t>
+  </si>
+  <si>
+    <t>2012/5/1</t>
+  </si>
+  <si>
+    <t>2012/6/1</t>
+  </si>
+  <si>
+    <t>2012/7/1</t>
+  </si>
+  <si>
+    <t>2012/8/1</t>
+  </si>
+  <si>
+    <t>2012/9/1</t>
+  </si>
+  <si>
+    <t>2012/10/1</t>
+  </si>
+  <si>
+    <t>2012/11/1</t>
+  </si>
+  <si>
+    <t>2012/12/1</t>
+  </si>
+  <si>
+    <t>2013/1/1</t>
+  </si>
+  <si>
+    <t>2013/2/1</t>
+  </si>
+  <si>
+    <t>2013/3/1</t>
+  </si>
+  <si>
+    <t>2013/4/1</t>
+  </si>
+  <si>
+    <t>2013/5/1</t>
+  </si>
+  <si>
+    <t>2013/6/1</t>
+  </si>
+  <si>
+    <t>2013/7/1</t>
+  </si>
+  <si>
+    <t>2013/8/1</t>
+  </si>
+  <si>
+    <t>2013/9/1</t>
+  </si>
+  <si>
+    <t>2013/10/1</t>
+  </si>
+  <si>
+    <t>2013/11/1</t>
+  </si>
+  <si>
+    <t>2013/12/1</t>
+  </si>
+  <si>
+    <t>2014/1/1</t>
+  </si>
+  <si>
+    <t>2014/2/1</t>
+  </si>
+  <si>
+    <t>2014/3/1</t>
+  </si>
+  <si>
+    <t>2014/4/1</t>
+  </si>
+  <si>
+    <t>2014/5/1</t>
+  </si>
+  <si>
+    <t>2014/6/1</t>
+  </si>
+  <si>
+    <t>2014/7/1</t>
+  </si>
+  <si>
+    <t>2014/8/1</t>
+  </si>
+  <si>
+    <t>2014/9/1</t>
+  </si>
+  <si>
+    <t>2014/10/1</t>
+  </si>
+  <si>
+    <t>2014/11/1</t>
+  </si>
+  <si>
+    <t>2014/12/1</t>
+  </si>
+  <si>
+    <t>2015/1/1</t>
+  </si>
+  <si>
+    <t>2015/2/1</t>
+  </si>
+  <si>
+    <t>2015/3/1</t>
+  </si>
+  <si>
+    <t>2015/4/1</t>
+  </si>
+  <si>
+    <t>2015/5/1</t>
+  </si>
+  <si>
+    <t>2015/6/1</t>
+  </si>
+  <si>
+    <t>2015/7/1</t>
+  </si>
+  <si>
+    <t>2015/8/1</t>
+  </si>
+  <si>
+    <t>2015/9/1</t>
+  </si>
+  <si>
+    <t>2015/10/1</t>
+  </si>
+  <si>
+    <t>2015/11/1</t>
+  </si>
+  <si>
+    <t>2015/12/1</t>
+  </si>
+  <si>
+    <t>2016/1/1</t>
+  </si>
+  <si>
+    <t>2016/2/1</t>
+  </si>
+  <si>
+    <t>2016/3/1</t>
+  </si>
+  <si>
+    <t>2016/4/1</t>
+  </si>
+  <si>
+    <t>2016/5/1</t>
+  </si>
+  <si>
+    <t>2016/6/1</t>
+  </si>
+  <si>
+    <t>2016/7/1</t>
+  </si>
+  <si>
+    <t>2016/8/1</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
-    <t>1999/3/1</t>
-  </si>
-  <si>
-    <t>1999/4/1</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>1999/5/1</t>
-  </si>
-  <si>
-    <t>1999/6/1</t>
-  </si>
-  <si>
-    <t>1999/7/1</t>
-  </si>
-  <si>
-    <t>1999/8/1</t>
-  </si>
-  <si>
-    <t>1999/9/1</t>
-  </si>
-  <si>
-    <t>1999/10/1</t>
-  </si>
-  <si>
-    <t>1999/11/1</t>
-  </si>
-  <si>
-    <t>1999/12/1</t>
-  </si>
-  <si>
-    <t>2000/1/1</t>
-  </si>
-  <si>
-    <t>2000/2/1</t>
-  </si>
-  <si>
-    <t>2000/3/1</t>
-  </si>
-  <si>
-    <t>2000/4/1</t>
-  </si>
-  <si>
-    <t>2000/5/1</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>2000/6/1</t>
-  </si>
-  <si>
-    <t>2000/7/1</t>
-  </si>
-  <si>
-    <t>2000/8/1</t>
-  </si>
-  <si>
-    <t>2000/9/1</t>
-  </si>
-  <si>
-    <t>2000/10/1</t>
-  </si>
-  <si>
-    <t>2000/11/1</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>2000/12/1</t>
-  </si>
-  <si>
-    <t>2001/1/1</t>
-  </si>
-  <si>
-    <t>2001/2/1</t>
-  </si>
-  <si>
-    <t>2001/3/1</t>
-  </si>
-  <si>
-    <t>2001/4/1</t>
-  </si>
-  <si>
-    <t>2001/5/1</t>
-  </si>
-  <si>
-    <t>2001/6/1</t>
-  </si>
-  <si>
-    <t>2001/7/1</t>
-  </si>
-  <si>
-    <t>2001/8/1</t>
-  </si>
-  <si>
-    <t>2001/9/1</t>
-  </si>
-  <si>
-    <t>2001/10/1</t>
-  </si>
-  <si>
-    <t>2001/11/1</t>
-  </si>
-  <si>
-    <t>2001/12/1</t>
-  </si>
-  <si>
-    <t>2002/1/1</t>
-  </si>
-  <si>
-    <t>2002/2/1</t>
-  </si>
-  <si>
-    <t>2002/3/1</t>
-  </si>
-  <si>
-    <t>2002/4/1</t>
-  </si>
-  <si>
-    <t>2002/5/1</t>
-  </si>
-  <si>
-    <t>2002/6/1</t>
-  </si>
-  <si>
-    <t>2002/7/1</t>
-  </si>
-  <si>
-    <t>2002/8/1</t>
-  </si>
-  <si>
-    <t>2002/9/1</t>
-  </si>
-  <si>
-    <t>2002/10/1</t>
-  </si>
-  <si>
-    <t>2002/11/1</t>
-  </si>
-  <si>
-    <t>2002/12/1</t>
-  </si>
-  <si>
-    <t>2003/1/1</t>
-  </si>
-  <si>
-    <t>2003/2/1</t>
-  </si>
-  <si>
-    <t>2003/3/1</t>
-  </si>
-  <si>
-    <t>2003/4/1</t>
-  </si>
-  <si>
-    <t>2003/5/1</t>
-  </si>
-  <si>
-    <t>2003/6/1</t>
-  </si>
-  <si>
-    <t>2003/7/1</t>
-  </si>
-  <si>
-    <t>2003/8/1</t>
-  </si>
-  <si>
-    <t>2003/9/1</t>
-  </si>
-  <si>
-    <t>2003/10/1</t>
-  </si>
-  <si>
-    <t>2003/11/1</t>
-  </si>
-  <si>
-    <t>2003/12/1</t>
-  </si>
-  <si>
-    <t>2004/1/1</t>
-  </si>
-  <si>
-    <t>2004/2/1</t>
-  </si>
-  <si>
-    <t>2004/3/1</t>
-  </si>
-  <si>
-    <t>2004/4/1</t>
-  </si>
-  <si>
-    <t>2004/5/1</t>
-  </si>
-  <si>
-    <t>2004/6/1</t>
-  </si>
-  <si>
-    <t>2004/7/1</t>
-  </si>
-  <si>
-    <t>2004/8/1</t>
-  </si>
-  <si>
-    <t>2004/9/1</t>
-  </si>
-  <si>
-    <t>2004/10/1</t>
-  </si>
-  <si>
-    <t>2004/11/1</t>
-  </si>
-  <si>
-    <t>2004/12/1</t>
-  </si>
-  <si>
-    <t>2005/1/1</t>
-  </si>
-  <si>
-    <t>2005/2/1</t>
-  </si>
-  <si>
-    <t>2005/3/1</t>
-  </si>
-  <si>
-    <t>2005/4/1</t>
-  </si>
-  <si>
-    <t>2005/5/1</t>
-  </si>
-  <si>
-    <t>2005/6/1</t>
-  </si>
-  <si>
-    <t>2005/7/1</t>
-  </si>
-  <si>
-    <t>2005/8/1</t>
-  </si>
-  <si>
-    <t>2005/9/1</t>
-  </si>
-  <si>
-    <t>2005/10/1</t>
-  </si>
-  <si>
-    <t>2005/11/1</t>
-  </si>
-  <si>
-    <t>2005/12/1</t>
-  </si>
-  <si>
-    <t>2006/1/1</t>
-  </si>
-  <si>
-    <t>2006/2/1</t>
-  </si>
-  <si>
-    <t>2006/3/1</t>
-  </si>
-  <si>
-    <t>2006/4/1</t>
-  </si>
-  <si>
-    <t>2006/5/1</t>
-  </si>
-  <si>
-    <t>2006/6/1</t>
-  </si>
-  <si>
-    <t>2006/7/1</t>
-  </si>
-  <si>
-    <t>2006/8/1</t>
-  </si>
-  <si>
-    <t>2006/9/1</t>
-  </si>
-  <si>
-    <t>2006/10/1</t>
-  </si>
-  <si>
-    <t>2006/11/1</t>
-  </si>
-  <si>
-    <t>2006/12/1</t>
-  </si>
-  <si>
-    <t>2007/1/1</t>
-  </si>
-  <si>
-    <t>2007/2/1</t>
-  </si>
-  <si>
-    <t>2007/3/1</t>
-  </si>
-  <si>
-    <t>2007/4/1</t>
-  </si>
-  <si>
-    <t>2007/5/1</t>
-  </si>
-  <si>
-    <t>2007/6/1</t>
-  </si>
-  <si>
-    <t>2007/7/1</t>
-  </si>
-  <si>
-    <t>2007/8/1</t>
-  </si>
-  <si>
-    <t>2007/9/1</t>
-  </si>
-  <si>
-    <t>2007/10/1</t>
-  </si>
-  <si>
-    <t>2007/11/1</t>
-  </si>
-  <si>
-    <t>2007/12/1</t>
-  </si>
-  <si>
-    <t>2008/1/1</t>
-  </si>
-  <si>
-    <t>2008/2/1</t>
-  </si>
-  <si>
-    <t>2008/3/1</t>
-  </si>
-  <si>
-    <t>2008/4/1</t>
-  </si>
-  <si>
-    <t>2008/5/1</t>
-  </si>
-  <si>
-    <t>2008/6/1</t>
-  </si>
-  <si>
-    <t>2008/7/1</t>
-  </si>
-  <si>
-    <t>2008/8/1</t>
-  </si>
-  <si>
-    <t>2008/9/1</t>
-  </si>
-  <si>
-    <t>2008/10/1</t>
-  </si>
-  <si>
-    <t>2008/11/1</t>
-  </si>
-  <si>
-    <t>2008/12/1</t>
-  </si>
-  <si>
-    <t>2009/1/1</t>
-  </si>
-  <si>
-    <t>2009/2/1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2009/3/1</t>
-  </si>
-  <si>
-    <t>2009/4/1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2009/5/1</t>
-  </si>
-  <si>
-    <t>2009/6/1</t>
-  </si>
-  <si>
-    <t>2009/7/1</t>
-  </si>
-  <si>
-    <t>2009/8/1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2009/9/1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2009/10/1</t>
-  </si>
-  <si>
-    <t>2009/11/1</t>
-  </si>
-  <si>
-    <t>2009/12/1</t>
-  </si>
-  <si>
-    <t>2010/1/1</t>
-  </si>
-  <si>
-    <t>2010/2/1</t>
-  </si>
-  <si>
-    <t>2010/3/1</t>
-  </si>
-  <si>
-    <t>2010/4/1</t>
-  </si>
-  <si>
-    <t>2010/5/1</t>
-  </si>
-  <si>
-    <t>2010/6/1</t>
-  </si>
-  <si>
-    <t>2010/7/1</t>
-  </si>
-  <si>
-    <t>2010/8/1</t>
-  </si>
-  <si>
-    <t>2010/9/1</t>
-  </si>
-  <si>
-    <t>2010/10/1</t>
-  </si>
-  <si>
-    <t>2010/11/1</t>
-  </si>
-  <si>
-    <t>2010/12/1</t>
-  </si>
-  <si>
-    <t>2011/1/1</t>
-  </si>
-  <si>
-    <t>2011/2/1</t>
-  </si>
-  <si>
-    <t>2011/3/1</t>
-  </si>
-  <si>
-    <t>2011/4/1</t>
-  </si>
-  <si>
-    <t>2011/5/1</t>
-  </si>
-  <si>
-    <t>2011/6/1</t>
-  </si>
-  <si>
-    <t>2011/7/1</t>
-  </si>
-  <si>
-    <t>2011/8/1</t>
-  </si>
-  <si>
-    <t>2011/9/1</t>
-  </si>
-  <si>
-    <t>2011/10/1</t>
-  </si>
-  <si>
-    <t>2011/11/1</t>
-  </si>
-  <si>
-    <t>2011/12/1</t>
-  </si>
-  <si>
-    <t>2012/1/1</t>
-  </si>
-  <si>
-    <t>2012/2/1</t>
-  </si>
-  <si>
-    <t>2012/3/1</t>
-  </si>
-  <si>
-    <t>2012/4/1</t>
-  </si>
-  <si>
-    <t>2012/5/1</t>
-  </si>
-  <si>
-    <t>2012/6/1</t>
-  </si>
-  <si>
-    <t>2012/7/1</t>
-  </si>
-  <si>
-    <t>2012/8/1</t>
-  </si>
-  <si>
-    <t>2012/9/1</t>
-  </si>
-  <si>
-    <t>2012/10/1</t>
-  </si>
-  <si>
-    <t>2012/11/1</t>
-  </si>
-  <si>
-    <t>2012/12/1</t>
-  </si>
-  <si>
-    <t>2013/1/1</t>
-  </si>
-  <si>
-    <t>2013/2/1</t>
-  </si>
-  <si>
-    <t>2013/3/1</t>
-  </si>
-  <si>
-    <t>2013/4/1</t>
-  </si>
-  <si>
-    <t>2013/5/1</t>
-  </si>
-  <si>
-    <t>2013/6/1</t>
-  </si>
-  <si>
-    <t>2013/7/1</t>
-  </si>
-  <si>
-    <t>2013/8/1</t>
-  </si>
-  <si>
-    <t>2013/9/1</t>
-  </si>
-  <si>
-    <t>2013/10/1</t>
-  </si>
-  <si>
-    <t>2013/11/1</t>
-  </si>
-  <si>
-    <t>2013/12/1</t>
-  </si>
-  <si>
-    <t>2014/1/1</t>
-  </si>
-  <si>
-    <t>2014/2/1</t>
-  </si>
-  <si>
-    <t>2014/3/1</t>
-  </si>
-  <si>
-    <t>2014/4/1</t>
-  </si>
-  <si>
-    <t>2014/5/1</t>
-  </si>
-  <si>
-    <t>2014/6/1</t>
-  </si>
-  <si>
-    <t>2014/7/1</t>
-  </si>
-  <si>
-    <t>2014/8/1</t>
-  </si>
-  <si>
-    <t>2014/9/1</t>
-  </si>
-  <si>
-    <t>2014/10/1</t>
-  </si>
-  <si>
-    <t>2014/11/1</t>
-  </si>
-  <si>
-    <t>2014/12/1</t>
-  </si>
-  <si>
-    <t>2015/1/1</t>
-  </si>
-  <si>
-    <t>2015/2/1</t>
-  </si>
-  <si>
-    <t>2015/3/1</t>
-  </si>
-  <si>
-    <t>2015/4/1</t>
-  </si>
-  <si>
-    <t>2015/5/1</t>
-  </si>
-  <si>
-    <t>2015/6/1</t>
-  </si>
-  <si>
-    <t>2015/7/1</t>
-  </si>
-  <si>
-    <t>2015/8/1</t>
-  </si>
-  <si>
-    <t>2015/9/1</t>
-  </si>
-  <si>
-    <t>2015/10/1</t>
-  </si>
-  <si>
-    <t>2015/11/1</t>
-  </si>
-  <si>
-    <t>2015/12/1</t>
-  </si>
-  <si>
-    <t>2016/1/1</t>
-  </si>
-  <si>
-    <t>2016/2/1</t>
-  </si>
-  <si>
-    <t>2016/3/1</t>
-  </si>
-  <si>
-    <t>2016/4/1</t>
-  </si>
-  <si>
-    <t>2016/5/1</t>
-  </si>
-  <si>
-    <t>2016/6/1</t>
-  </si>
-  <si>
-    <t>2016/7/1</t>
-  </si>
-  <si>
-    <t>2016/8/1</t>
-  </si>
-  <si>
     <t>2016/9/1</t>
   </si>
   <si>
@@ -1432,12 +1433,15 @@
   </si>
   <si>
     <t>2021/10/1</t>
+  </si>
+  <si>
+    <t>2021/12/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1586,6 +1590,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1621,6 +1642,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1796,8 +1834,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B430"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1854,12 +1892,12 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1867,7 +1905,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1875,7 +1913,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1883,10 +1921,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,12 +1964,12 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1939,7 +1977,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1947,15 +1985,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1963,7 +2001,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1971,15 +2009,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1987,7 +2025,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1995,39 +2033,39 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -2035,26 +2073,26 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2062,7 +2100,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2070,7 +2108,7 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2078,7 +2116,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2094,7 +2132,7 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2102,7 +2140,7 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2110,7 +2148,7 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2118,7 +2156,7 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2134,7 +2172,7 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2142,7 +2180,7 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2150,7 +2188,7 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2158,7 +2196,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2174,7 +2212,7 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2182,7 +2220,7 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2190,7 +2228,7 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2198,7 +2236,7 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2206,7 +2244,7 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2214,7 +2252,7 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2230,7 +2268,7 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2238,7 +2276,7 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2302,7 +2340,7 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2310,12 +2348,12 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
@@ -2323,18 +2361,18 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
         <v>79</v>
-      </c>
-      <c r="B66" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2342,7 +2380,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2350,7 +2388,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,7 +2396,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,7 +2404,7 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2374,7 +2412,7 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2428,7 @@
         <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2406,7 +2444,7 @@
         <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2414,7 +2452,7 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,7 +2460,7 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2438,7 +2476,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2462,7 +2500,7 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2470,7 +2508,7 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2478,7 +2516,7 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2518,7 +2556,7 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2526,7 +2564,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2598,7 +2636,7 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2614,7 +2652,7 @@
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2622,7 +2660,7 @@
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2638,7 +2676,7 @@
         <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2646,7 +2684,7 @@
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2654,7 +2692,7 @@
         <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2662,7 +2700,7 @@
         <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2670,7 +2708,7 @@
         <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2678,7 +2716,7 @@
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2694,7 +2732,7 @@
         <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2702,7 +2740,7 @@
         <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2710,7 +2748,7 @@
         <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2718,7 +2756,7 @@
         <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,7 +2764,7 @@
         <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2734,7 +2772,7 @@
         <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2742,7 +2780,7 @@
         <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2750,7 +2788,7 @@
         <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2758,7 +2796,7 @@
         <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2766,7 +2804,7 @@
         <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2774,7 +2812,7 @@
         <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2782,7 +2820,7 @@
         <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2790,7 +2828,7 @@
         <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2798,7 +2836,7 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2806,7 +2844,7 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2868,7 @@
         <v>145</v>
       </c>
       <c r="B128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2870,7 +2908,7 @@
         <v>151</v>
       </c>
       <c r="B133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2886,7 +2924,7 @@
         <v>153</v>
       </c>
       <c r="B135" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2910,7 +2948,7 @@
         <v>156</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2982,7 +3020,7 @@
         <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3078,12 +3116,12 @@
         <v>180</v>
       </c>
       <c r="B159" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B160" t="s">
         <v>176</v>
@@ -3091,15 +3129,15 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>182</v>
+      </c>
+      <c r="B161" t="s">
         <v>183</v>
-      </c>
-      <c r="B161" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B162" t="s">
         <v>144</v>
@@ -3107,7 +3145,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B163" t="s">
         <v>171</v>
@@ -3115,7 +3153,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B164" t="s">
         <v>159</v>
@@ -3123,7 +3161,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B165" t="s">
         <v>144</v>
@@ -3131,7 +3169,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B166" t="s">
         <v>159</v>
@@ -3139,7 +3177,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B167" t="s">
         <v>176</v>
@@ -3147,7 +3185,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B168" t="s">
         <v>171</v>
@@ -3155,15 +3193,15 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B169" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -3171,63 +3209,63 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B172" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B173" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B174" t="s">
         <v>197</v>
-      </c>
-      <c r="B174" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B175" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B176" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B177" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B178" t="s">
         <v>176</v>
@@ -3235,7 +3273,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B179" t="s">
         <v>176</v>
@@ -3243,23 +3281,23 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>203</v>
+      </c>
+      <c r="B180" t="s">
         <v>204</v>
-      </c>
-      <c r="B180" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B181" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B182" t="s">
         <v>171</v>
@@ -3267,15 +3305,15 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B183" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B184" t="s">
         <v>142</v>
@@ -3283,7 +3321,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B185" t="s">
         <v>142</v>
@@ -3291,7 +3329,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B186" t="s">
         <v>142</v>
@@ -3299,7 +3337,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B187" t="s">
         <v>144</v>
@@ -3307,15 +3345,15 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B188" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B189" t="s">
         <v>159</v>
@@ -3323,23 +3361,23 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B190" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B191" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -3347,15 +3385,15 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B193" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -3363,31 +3401,31 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B196" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B197" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -3395,23 +3433,23 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B199" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B200" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -3419,7 +3457,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B202" t="s">
         <v>9</v>
@@ -3427,7 +3465,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -3435,15 +3473,15 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B204" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B205" t="s">
         <v>9</v>
@@ -3451,7 +3489,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -3459,15 +3497,15 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B208" t="s">
         <v>3</v>
@@ -3475,7 +3513,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B209" t="s">
         <v>17</v>
@@ -3483,7 +3521,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B210" t="s">
         <v>9</v>
@@ -3491,7 +3529,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B211" t="s">
         <v>9</v>
@@ -3499,23 +3537,23 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B212" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B213" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B214" t="s">
         <v>7</v>
@@ -3523,7 +3561,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B215" t="s">
         <v>3</v>
@@ -3531,7 +3569,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B216" t="s">
         <v>7</v>
@@ -3539,15 +3577,15 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B217" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
@@ -3555,87 +3593,87 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B221" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B222" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B223" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B224" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B225" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B226" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B227" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B228" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B229" t="s">
         <v>47</v>
@@ -3643,23 +3681,23 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B230" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B231" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B232" t="s">
         <v>47</v>
@@ -3667,79 +3705,79 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B233" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B234" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B235" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B236" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B237" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B238" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B239" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B240" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B241" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B242" t="s">
         <v>142</v>
@@ -3747,23 +3785,23 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B243" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B244" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B245" t="s">
         <v>171</v>
@@ -3771,23 +3809,23 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B246" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B247" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B248" t="s">
         <v>47</v>
@@ -3795,7 +3833,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B249" t="s">
         <v>47</v>
@@ -3803,15 +3841,15 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B250" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B251" t="s">
         <v>144</v>
@@ -3819,23 +3857,23 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B252" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B253" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B254" t="s">
         <v>142</v>
@@ -3843,15 +3881,15 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B255" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B256" t="s">
         <v>142</v>
@@ -3859,7 +3897,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B257" t="s">
         <v>142</v>
@@ -3867,7 +3905,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B258" t="s">
         <v>47</v>
@@ -3875,7 +3913,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B259" t="s">
         <v>142</v>
@@ -3883,15 +3921,15 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B261" t="s">
         <v>47</v>
@@ -3899,39 +3937,39 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B262" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B263" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B264" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B265" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B266" t="s">
         <v>47</v>
@@ -3939,15 +3977,15 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B267" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
@@ -3955,31 +3993,31 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B269" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B270" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B271" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B272" t="s">
         <v>17</v>
@@ -3987,15 +4025,15 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B273" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B274" t="s">
         <v>3</v>
@@ -4003,31 +4041,31 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B275" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B276" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B277" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B278" t="s">
         <v>86</v>
@@ -4035,15 +4073,15 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B279" t="s">
-        <v>305</v>
+        <v>86</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B280" t="s">
         <v>305</v>
@@ -4051,23 +4089,23 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>306</v>
+      </c>
+      <c r="B281" t="s">
         <v>307</v>
-      </c>
-      <c r="B281" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B282" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B283" t="s">
         <v>86</v>
@@ -4075,47 +4113,47 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B284" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>311</v>
+      </c>
+      <c r="B285" t="s">
         <v>312</v>
-      </c>
-      <c r="B285" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>313</v>
+      </c>
+      <c r="B286" t="s">
         <v>314</v>
-      </c>
-      <c r="B286" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B287" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B288" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B289" t="s">
         <v>86</v>
@@ -4123,7 +4161,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B290" t="s">
         <v>305</v>
@@ -4131,23 +4169,23 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B291" t="s">
-        <v>305</v>
+        <v>86</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B292" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B293" t="s">
         <v>86</v>
@@ -4155,23 +4193,23 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B294" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B295" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B296" t="s">
         <v>305</v>
@@ -4179,7 +4217,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B297" t="s">
         <v>305</v>
@@ -4187,7 +4225,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B298" t="s">
         <v>86</v>
@@ -4195,7 +4233,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B299" t="s">
         <v>305</v>
@@ -4203,7 +4241,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B300" t="s">
         <v>305</v>
@@ -4211,23 +4249,23 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B301" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B302" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
@@ -4235,23 +4273,23 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B304" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B305" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B306" t="s">
         <v>89</v>
@@ -4259,15 +4297,15 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B307" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B308" t="s">
         <v>89</v>
@@ -4275,31 +4313,31 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B309" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B310" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B311" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B312" t="s">
         <v>17</v>
@@ -4307,7 +4345,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B313" t="s">
         <v>9</v>
@@ -4315,7 +4353,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B314" t="s">
         <v>3</v>
@@ -4323,23 +4361,23 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B315" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B316" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B317" t="s">
         <v>17</v>
@@ -4347,31 +4385,31 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B318" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B319" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B320" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B321" t="s">
         <v>17</v>
@@ -4379,7 +4417,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B322" t="s">
         <v>17</v>
@@ -4387,7 +4425,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B323" t="s">
         <v>9</v>
@@ -4395,7 +4433,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B324" t="s">
         <v>3</v>
@@ -4403,7 +4441,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B325" t="s">
         <v>17</v>
@@ -4411,7 +4449,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B326" t="s">
         <v>3</v>
@@ -4419,15 +4457,15 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B327" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B328" t="s">
         <v>3</v>
@@ -4435,7 +4473,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B329" t="s">
         <v>3</v>
@@ -4443,7 +4481,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B330" t="s">
         <v>7</v>
@@ -4451,7 +4489,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
@@ -4459,15 +4497,15 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B332" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B333" t="s">
         <v>3</v>
@@ -4475,23 +4513,23 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B334" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B335" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B336" t="s">
         <v>47</v>
@@ -4499,7 +4537,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B337" t="s">
         <v>47</v>
@@ -4507,31 +4545,31 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B338" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B339" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B340" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B341" t="s">
         <v>47</v>
@@ -4539,7 +4577,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B342" t="s">
         <v>47</v>
@@ -4547,7 +4585,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B343" t="s">
         <v>142</v>
@@ -4555,7 +4593,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B344" t="s">
         <v>47</v>
@@ -4563,23 +4601,23 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B345" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B346" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B347" t="s">
         <v>47</v>
@@ -4587,15 +4625,15 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B348" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B349" t="s">
         <v>142</v>
@@ -4603,7 +4641,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B350" t="s">
         <v>142</v>
@@ -4611,15 +4649,15 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B351" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B352" t="s">
         <v>47</v>
@@ -4627,7 +4665,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B353" t="s">
         <v>144</v>
@@ -4635,7 +4673,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B354" t="s">
         <v>159</v>
@@ -4643,7 +4681,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B355" t="s">
         <v>47</v>
@@ -4651,15 +4689,15 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B356" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B357" t="s">
         <v>147</v>
@@ -4667,7 +4705,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B358" t="s">
         <v>144</v>
@@ -4675,7 +4713,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B359" t="s">
         <v>144</v>
@@ -4683,7 +4721,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B360" t="s">
         <v>147</v>
@@ -4691,7 +4729,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B361" t="s">
         <v>159</v>
@@ -4699,7 +4737,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B362" t="s">
         <v>159</v>
@@ -4707,23 +4745,23 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B363" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B364" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B365" t="s">
         <v>159</v>
@@ -4731,7 +4769,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B366" t="s">
         <v>144</v>
@@ -4739,7 +4777,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B367" t="s">
         <v>159</v>
@@ -4747,7 +4785,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B368" t="s">
         <v>142</v>
@@ -4755,10 +4793,10 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>397</v>
+      </c>
+      <c r="B369" t="s">
         <v>398</v>
-      </c>
-      <c r="B369" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -4790,7 +4828,7 @@
         <v>402</v>
       </c>
       <c r="B373" t="s">
-        <v>181</v>
+        <v>398</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -4806,7 +4844,7 @@
         <v>404</v>
       </c>
       <c r="B375" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -4814,7 +4852,7 @@
         <v>405</v>
       </c>
       <c r="B376" t="s">
-        <v>181</v>
+        <v>398</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -4822,7 +4860,7 @@
         <v>406</v>
       </c>
       <c r="B377" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -4830,7 +4868,7 @@
         <v>407</v>
       </c>
       <c r="B378" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -4838,7 +4876,7 @@
         <v>408</v>
       </c>
       <c r="B379" t="s">
-        <v>181</v>
+        <v>398</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -4862,7 +4900,7 @@
         <v>412</v>
       </c>
       <c r="B382" t="s">
-        <v>181</v>
+        <v>398</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -4878,7 +4916,7 @@
         <v>414</v>
       </c>
       <c r="B384" t="s">
-        <v>181</v>
+        <v>398</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -4894,7 +4932,7 @@
         <v>416</v>
       </c>
       <c r="B386" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -4902,7 +4940,7 @@
         <v>417</v>
       </c>
       <c r="B387" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -4926,7 +4964,7 @@
         <v>420</v>
       </c>
       <c r="B390" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -4934,7 +4972,7 @@
         <v>421</v>
       </c>
       <c r="B391" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -4974,7 +5012,7 @@
         <v>428</v>
       </c>
       <c r="B396" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -4998,7 +5036,7 @@
         <v>432</v>
       </c>
       <c r="B399" t="s">
-        <v>205</v>
+        <v>423</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5030,7 +5068,7 @@
         <v>437</v>
       </c>
       <c r="B403" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5062,7 +5100,7 @@
         <v>441</v>
       </c>
       <c r="B407" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5078,7 +5116,7 @@
         <v>443</v>
       </c>
       <c r="B409" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -5086,7 +5124,7 @@
         <v>444</v>
       </c>
       <c r="B410" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -5094,7 +5132,7 @@
         <v>445</v>
       </c>
       <c r="B411" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5118,7 +5156,7 @@
         <v>448</v>
       </c>
       <c r="B414" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -5134,7 +5172,7 @@
         <v>450</v>
       </c>
       <c r="B416" t="s">
-        <v>181</v>
+        <v>398</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5142,7 +5180,7 @@
         <v>451</v>
       </c>
       <c r="B417" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -5150,7 +5188,7 @@
         <v>452</v>
       </c>
       <c r="B418" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -5158,7 +5196,7 @@
         <v>453</v>
       </c>
       <c r="B419" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -5166,7 +5204,7 @@
         <v>454</v>
       </c>
       <c r="B420" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -5174,7 +5212,7 @@
         <v>455</v>
       </c>
       <c r="B421" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -5182,7 +5220,7 @@
         <v>456</v>
       </c>
       <c r="B422" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -5190,7 +5228,7 @@
         <v>457</v>
       </c>
       <c r="B423" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -5249,9 +5287,18 @@
         <v>467</v>
       </c>
     </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>471</v>
+      </c>
+      <c r="B431" t="s">
+        <v>469</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>